--- a/docs/11_test_case/test_cases.xlsx
+++ b/docs/11_test_case/test_cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>TC Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type id more than 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id validation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type pass more than 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cannot type character more than 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,15 +94,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type invalid id,pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>push login button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misuse case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,11 +190,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type id,pass something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login is needed
+select test mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push Pause button when no face recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push Resume... button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo is stopped. no face recognition
+Pause button is changed to "Resume need to pause again to Save Picture" button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo is played</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo is stopped. one face recognition is represented
+Pause button is changed to "Resume" button.
+Name input is enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Learn Mode - Save" button is enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove and empty name on Name input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Learn Mode - Save" button is disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type name again on Name input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push Pause button when face recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push "Resume" button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm "save done" dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type id more than 10 len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type pass more than 20 len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type name more than 20 len on Name input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not meet the condition below
+ - type alphabet and number in id
+ - Minimum eight characters, at least one letter, one number and one special character on password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +312,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -251,24 +342,340 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,325 +954,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="28"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="28"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="28"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A12" s="28"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="26">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="C16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="30"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="26">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="26">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="26">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="30"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="26">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="A26" s="26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="28"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+      <c r="A29" s="28"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="28"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="28"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="28"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="30"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="9">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.45">
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.45">
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="16">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
